--- a/Dico_des_données.xlsx
+++ b/Dico_des_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfr20\Desktop\Syst_info\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CBD68A-2BCB-48B8-8C48-61969D3EB274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88086E0E-A9E5-48EC-A674-26C3A78BBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="1875" windowWidth="14400" windowHeight="8280" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>code rubrique</t>
   </si>
@@ -92,6 +92,9 @@
     <t>numSalle</t>
   </si>
   <si>
+    <t>numéro de la classe</t>
+  </si>
+  <si>
     <t>AN</t>
   </si>
   <si>
@@ -114,6 +117,66 @@
   </si>
   <si>
     <t>numéro du matériel</t>
+  </si>
+  <si>
+    <t>dateDebutCours</t>
+  </si>
+  <si>
+    <t>date du debut du cours</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>heureDebutCours</t>
+  </si>
+  <si>
+    <t>heure du début du cours</t>
+  </si>
+  <si>
+    <t>heure</t>
+  </si>
+  <si>
+    <t>numTelParent</t>
+  </si>
+  <si>
+    <t>numéro de téléphone des parents</t>
+  </si>
+  <si>
+    <t>matière</t>
+  </si>
+  <si>
+    <t>nom de la matière</t>
+  </si>
+  <si>
+    <t>numEnseignant</t>
+  </si>
+  <si>
+    <t>numéro de l'enseignant</t>
+  </si>
+  <si>
+    <t>typeDeCours</t>
+  </si>
+  <si>
+    <t>type de cours(cours, TD, TP)</t>
+  </si>
+  <si>
+    <t>nombreHeureCours</t>
+  </si>
+  <si>
+    <t>duréeCours</t>
+  </si>
+  <si>
+    <t>nombre total dans l'année d'un cours</t>
+  </si>
+  <si>
+    <t>durée de chaque cours</t>
+  </si>
+  <si>
+    <t>classe</t>
+  </si>
+  <si>
+    <t>demi-groupe</t>
   </si>
 </sst>
 </file>
@@ -475,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC1D78B-3961-4A6C-990A-D83D2FCD4EEE}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -566,10 +629,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -577,10 +640,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -591,10 +654,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -605,15 +668,155 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Dico_des_données.xlsx
+++ b/Dico_des_données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfr20\Desktop\Syst_info\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88086E0E-A9E5-48EC-A674-26C3A78BBF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD936C91-2C0B-48DA-912F-0CABEFD9861A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1875" windowWidth="14400" windowHeight="8280" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>code rubrique</t>
   </si>
@@ -173,10 +162,34 @@
     <t>durée de chaque cours</t>
   </si>
   <si>
-    <t>classe</t>
-  </si>
-  <si>
     <t>demi-groupe</t>
+  </si>
+  <si>
+    <t>idclasse</t>
+  </si>
+  <si>
+    <t>emailParent</t>
+  </si>
+  <si>
+    <t>adresse mail du representant légal</t>
+  </si>
+  <si>
+    <t>type de salle(Labo, machine,sport,classe)</t>
+  </si>
+  <si>
+    <t>typeSalle</t>
+  </si>
+  <si>
+    <t>numClasse</t>
+  </si>
+  <si>
+    <t>numéro de classe</t>
+  </si>
+  <si>
+    <t>semaine</t>
+  </si>
+  <si>
+    <t>type de semaine(A ou B)</t>
   </si>
 </sst>
 </file>
@@ -192,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -221,9 +240,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,19 +558,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC1D78B-3961-4A6C-990A-D83D2FCD4EEE}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -590,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -610,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -624,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -638,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -652,96 +672,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -750,26 +764,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -778,46 +792,99 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Dico_des_données.xlsx
+++ b/Dico_des_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD936C91-2C0B-48DA-912F-0CABEFD9861A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C83F36-6887-4293-9FA4-E5A14EB588C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>code rubrique</t>
   </si>
@@ -81,9 +81,6 @@
     <t>numSalle</t>
   </si>
   <si>
-    <t>numéro de la classe</t>
-  </si>
-  <si>
     <t>AN</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>demi-groupe</t>
   </si>
   <si>
-    <t>idclasse</t>
-  </si>
-  <si>
     <t>emailParent</t>
   </si>
   <si>
@@ -190,6 +184,9 @@
   </si>
   <si>
     <t>type de semaine(A ou B)</t>
+  </si>
+  <si>
+    <t>Un cours ne peut pas débuté à 12h</t>
   </si>
 </sst>
 </file>
@@ -558,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC1D78B-3961-4A6C-990A-D83D2FCD4EEE}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +646,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -660,10 +657,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -674,32 +671,38 @@
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -710,10 +713,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -724,27 +727,30 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" t="s">
         <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -752,10 +758,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -766,13 +772,13 @@
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -780,10 +786,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -794,10 +800,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -808,10 +814,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -822,10 +828,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -836,10 +842,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -850,13 +856,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -864,27 +870,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Dico_des_données.xlsx
+++ b/Dico_des_données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfr20\Desktop\Syst_info\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C83F36-6887-4293-9FA4-E5A14EB588C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5E91C-DF99-449F-AFEC-4734BBEE9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
+    <workbookView xWindow="4700" yWindow="2210" windowWidth="14400" windowHeight="8280" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>code rubrique</t>
   </si>
@@ -187,6 +187,36 @@
   </si>
   <si>
     <t>Un cours ne peut pas débuté à 12h</t>
+  </si>
+  <si>
+    <t>date du debut de l'absence</t>
+  </si>
+  <si>
+    <t>fin de l'absence</t>
+  </si>
+  <si>
+    <t>sexeParent</t>
+  </si>
+  <si>
+    <t>finAbsence</t>
+  </si>
+  <si>
+    <t>debutAbsence</t>
+  </si>
+  <si>
+    <t>sexe du responsable légal</t>
+  </si>
+  <si>
+    <t>NomParent</t>
+  </si>
+  <si>
+    <t>nom de famille du responsable légal</t>
+  </si>
+  <si>
+    <t>TypeContactPref</t>
+  </si>
+  <si>
+    <t>moyen de contact préférentiel du responsable légal</t>
   </si>
 </sst>
 </file>
@@ -555,19 +585,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC1D78B-3961-4A6C-990A-D83D2FCD4EEE}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -607,7 +637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -627,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -641,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -655,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -669,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -683,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -697,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -711,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -725,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -742,7 +772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -756,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -770,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -784,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -798,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -812,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -826,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -840,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -854,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -868,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -879,6 +909,76 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Dico_des_données.xlsx
+++ b/Dico_des_données.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfr20\Desktop\Syst_info\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5E91C-DF99-449F-AFEC-4734BBEE9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA032F-EACB-4900-A74D-9034BBC20A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="2210" windowWidth="14400" windowHeight="8280" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3FDCF188-4E4D-4E0F-A644-112A969AF02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>code rubrique</t>
   </si>
@@ -84,9 +84,6 @@
     <t>AN</t>
   </si>
   <si>
-    <t>capacité</t>
-  </si>
-  <si>
     <t>numéro de la salle</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>numéro de téléphone des parents</t>
   </si>
   <si>
-    <t>matière</t>
-  </si>
-  <si>
     <t>nom de la matière</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>numéro de classe</t>
   </si>
   <si>
-    <t>semaine</t>
-  </si>
-  <si>
     <t>type de semaine(A ou B)</t>
   </si>
   <si>
@@ -217,6 +208,132 @@
   </si>
   <si>
     <t>moyen de contact préférentiel du responsable légal</t>
+  </si>
+  <si>
+    <t>capacitéSalle</t>
+  </si>
+  <si>
+    <t>typeClasse</t>
+  </si>
+  <si>
+    <t>type de classe (6e, 5e, 4e, 3e)</t>
+  </si>
+  <si>
+    <t>code_cours</t>
+  </si>
+  <si>
+    <t>Code de cours</t>
+  </si>
+  <si>
+    <t>coordCorrespond</t>
+  </si>
+  <si>
+    <t>Les coordonnees corrspondant pour les moyens de contact de parent</t>
+  </si>
+  <si>
+    <t>LienEleve</t>
+  </si>
+  <si>
+    <t>Lien de parent avec élève(père, mère, etc)</t>
+  </si>
+  <si>
+    <t>prénomParent</t>
+  </si>
+  <si>
+    <t>prénom de parent</t>
+  </si>
+  <si>
+    <t>TypeMatiere</t>
+  </si>
+  <si>
+    <t>nbHrCours</t>
+  </si>
+  <si>
+    <t>Le nombre d'heure de cours</t>
+  </si>
+  <si>
+    <t>nbHrTD</t>
+  </si>
+  <si>
+    <t>nbHrTP</t>
+  </si>
+  <si>
+    <t>Le nombre d'heure de TP</t>
+  </si>
+  <si>
+    <t>Le nombre d'heure de TD</t>
+  </si>
+  <si>
+    <t>NomEnseign</t>
+  </si>
+  <si>
+    <t>PrenomEnseign</t>
+  </si>
+  <si>
+    <t>Nom de famille de l'enseignant</t>
+  </si>
+  <si>
+    <t>Prenom de l'enseignant</t>
+  </si>
+  <si>
+    <t>typeSemaine</t>
+  </si>
+  <si>
+    <t>typeCreneau</t>
+  </si>
+  <si>
+    <t>Type de creneau</t>
+  </si>
+  <si>
+    <t>DureeCrenuau</t>
+  </si>
+  <si>
+    <t>Duree de la creneau</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>CodeSeanceExept</t>
+  </si>
+  <si>
+    <t>Code de la séance exeptionnelle</t>
+  </si>
+  <si>
+    <t>dateSeanceExept</t>
+  </si>
+  <si>
+    <t>Date de la séance exeptionnelle</t>
+  </si>
+  <si>
+    <t>raisonChangExept</t>
+  </si>
+  <si>
+    <t>Raison de changement exeptionnelle</t>
+  </si>
+  <si>
+    <t>SeanceTypeConc</t>
+  </si>
+  <si>
+    <t>Séance type concernee</t>
+  </si>
+  <si>
+    <t>DateSeanceType</t>
+  </si>
+  <si>
+    <t>Date de la séance type</t>
+  </si>
+  <si>
+    <t>dureeSeance type</t>
+  </si>
+  <si>
+    <t>Duree de la séance type</t>
+  </si>
+  <si>
+    <t>CodeSeanceType</t>
+  </si>
+  <si>
+    <t>Code de la séance type</t>
   </si>
 </sst>
 </file>
@@ -232,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,10 +390,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,19 +710,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC1D78B-3961-4A6C-990A-D83D2FCD4EEE}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.40625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -637,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -657,7 +782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -671,12 +796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -685,12 +810,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -699,26 +824,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -726,72 +853,79 @@
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -800,35 +934,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -836,151 +976,467 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
